--- a/hbs_madde_tanim2019.xlsx
+++ b/hbs_madde_tanim2019.xlsx
@@ -5,22 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TEPAV\GIZ-İst\HBA\HHBA_2019\TR\data_tr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TEPAV\GIZ-İst\HBA\HHBA_all\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10488" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10488"/>
   </bookViews>
   <sheets>
     <sheet name="hbs_madde_tanim" sheetId="1" r:id="rId1"/>
-    <sheet name="pro" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="609">
   <si>
     <t>2'li Ana grup kodu</t>
   </si>
@@ -1847,25 +1846,13 @@
   </si>
   <si>
     <t>DİĞER ÜCRETLER VE HİZMETLER</t>
-  </si>
-  <si>
-    <t>GIDA</t>
-  </si>
-  <si>
-    <t>DİĞER</t>
-  </si>
-  <si>
-    <t>tür</t>
-  </si>
-  <si>
-    <t>HBS_KOD5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2017,14 +2004,6 @@
       <family val="2"/>
       <charset val="162"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="162"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2368,9 +2347,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="%20 - Vurgu1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2692,15 +2670,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D304"/>
+  <dimension ref="A1:C304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="A1:D304"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2708,13 +2686,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>611</v>
-      </c>
-      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2722,13 +2697,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2736,13 +2708,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>609</v>
-      </c>
-      <c r="D3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2750,13 +2719,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>609</v>
-      </c>
-      <c r="D4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2764,13 +2730,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>609</v>
-      </c>
-      <c r="D5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2778,13 +2741,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>609</v>
-      </c>
-      <c r="D6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2792,13 +2752,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>609</v>
-      </c>
-      <c r="D7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2806,13 +2763,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>609</v>
-      </c>
-      <c r="D8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2820,13 +2774,10 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>609</v>
-      </c>
-      <c r="D9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2834,13 +2785,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>609</v>
-      </c>
-      <c r="D10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2848,13 +2796,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>609</v>
-      </c>
-      <c r="D11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2862,13 +2807,10 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>609</v>
-      </c>
-      <c r="D12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2876,13 +2818,10 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>609</v>
-      </c>
-      <c r="D13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2890,13 +2829,10 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>609</v>
-      </c>
-      <c r="D14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2904,13 +2840,10 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>609</v>
-      </c>
-      <c r="D15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -2918,13 +2851,10 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>609</v>
-      </c>
-      <c r="D16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2932,13 +2862,10 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>609</v>
-      </c>
-      <c r="D17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2946,13 +2873,10 @@
         <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>609</v>
-      </c>
-      <c r="D18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2960,13 +2884,10 @@
         <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>609</v>
-      </c>
-      <c r="D19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2974,13 +2895,10 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>609</v>
-      </c>
-      <c r="D20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2988,13 +2906,10 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>609</v>
-      </c>
-      <c r="D21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -3002,13 +2917,10 @@
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>609</v>
-      </c>
-      <c r="D22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -3016,13 +2928,10 @@
         <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>609</v>
-      </c>
-      <c r="D23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -3030,13 +2939,10 @@
         <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>609</v>
-      </c>
-      <c r="D24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -3044,13 +2950,10 @@
         <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>609</v>
-      </c>
-      <c r="D25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -3058,13 +2961,10 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>609</v>
-      </c>
-      <c r="D26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -3072,13 +2972,10 @@
         <v>53</v>
       </c>
       <c r="C27" t="s">
-        <v>609</v>
-      </c>
-      <c r="D27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3086,13 +2983,10 @@
         <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>609</v>
-      </c>
-      <c r="D28" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3100,13 +2994,10 @@
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>609</v>
-      </c>
-      <c r="D29" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -3114,13 +3005,10 @@
         <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>609</v>
-      </c>
-      <c r="D30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3128,13 +3016,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>609</v>
-      </c>
-      <c r="D31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -3142,13 +3027,10 @@
         <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>609</v>
-      </c>
-      <c r="D32" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -3156,13 +3038,10 @@
         <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>609</v>
-      </c>
-      <c r="D33" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -3170,13 +3049,10 @@
         <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>609</v>
-      </c>
-      <c r="D34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -3184,13 +3060,10 @@
         <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>609</v>
-      </c>
-      <c r="D35" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -3198,13 +3071,10 @@
         <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>609</v>
-      </c>
-      <c r="D36" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -3212,13 +3082,10 @@
         <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>609</v>
-      </c>
-      <c r="D37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -3226,13 +3093,10 @@
         <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>609</v>
-      </c>
-      <c r="D38" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3240,13 +3104,10 @@
         <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>609</v>
-      </c>
-      <c r="D39" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -3254,13 +3115,10 @@
         <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>609</v>
-      </c>
-      <c r="D40" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -3268,13 +3126,10 @@
         <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>609</v>
-      </c>
-      <c r="D41" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -3282,13 +3137,10 @@
         <v>83</v>
       </c>
       <c r="C42" t="s">
-        <v>609</v>
-      </c>
-      <c r="D42" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -3296,13 +3148,10 @@
         <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>609</v>
-      </c>
-      <c r="D43" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -3310,13 +3159,10 @@
         <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>609</v>
-      </c>
-      <c r="D44" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -3324,13 +3170,10 @@
         <v>89</v>
       </c>
       <c r="C45" t="s">
-        <v>609</v>
-      </c>
-      <c r="D45" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3338,13 +3181,10 @@
         <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>609</v>
-      </c>
-      <c r="D46" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1</v>
       </c>
@@ -3352,13 +3192,10 @@
         <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>609</v>
-      </c>
-      <c r="D47" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1</v>
       </c>
@@ -3366,13 +3203,10 @@
         <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>609</v>
-      </c>
-      <c r="D48" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3380,13 +3214,10 @@
         <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>609</v>
-      </c>
-      <c r="D49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
@@ -3394,13 +3225,10 @@
         <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>609</v>
-      </c>
-      <c r="D50" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -3408,13 +3236,10 @@
         <v>101</v>
       </c>
       <c r="C51" t="s">
-        <v>609</v>
-      </c>
-      <c r="D51" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1</v>
       </c>
@@ -3422,13 +3247,10 @@
         <v>103</v>
       </c>
       <c r="C52" t="s">
-        <v>609</v>
-      </c>
-      <c r="D52" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3436,13 +3258,10 @@
         <v>105</v>
       </c>
       <c r="C53" t="s">
-        <v>609</v>
-      </c>
-      <c r="D53" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -3450,13 +3269,10 @@
         <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>609</v>
-      </c>
-      <c r="D54" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1</v>
       </c>
@@ -3464,13 +3280,10 @@
         <v>109</v>
       </c>
       <c r="C55" t="s">
-        <v>609</v>
-      </c>
-      <c r="D55" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3478,13 +3291,10 @@
         <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>609</v>
-      </c>
-      <c r="D56" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -3492,13 +3302,10 @@
         <v>113</v>
       </c>
       <c r="C57" t="s">
-        <v>609</v>
-      </c>
-      <c r="D57" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -3506,13 +3313,10 @@
         <v>115</v>
       </c>
       <c r="C58" t="s">
-        <v>609</v>
-      </c>
-      <c r="D58" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -3520,13 +3324,10 @@
         <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>609</v>
-      </c>
-      <c r="D59" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -3534,13 +3335,10 @@
         <v>119</v>
       </c>
       <c r="C60" t="s">
-        <v>609</v>
-      </c>
-      <c r="D60" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -3548,13 +3346,10 @@
         <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>609</v>
-      </c>
-      <c r="D61" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -3562,13 +3357,10 @@
         <v>123</v>
       </c>
       <c r="C62" t="s">
-        <v>609</v>
-      </c>
-      <c r="D62" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -3576,13 +3368,10 @@
         <v>125</v>
       </c>
       <c r="C63" t="s">
-        <v>609</v>
-      </c>
-      <c r="D63" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -3590,13 +3379,10 @@
         <v>127</v>
       </c>
       <c r="C64" t="s">
-        <v>609</v>
-      </c>
-      <c r="D64" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -3604,13 +3390,10 @@
         <v>129</v>
       </c>
       <c r="C65" t="s">
-        <v>609</v>
-      </c>
-      <c r="D65" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3618,13 +3401,10 @@
         <v>131</v>
       </c>
       <c r="C66" t="s">
-        <v>609</v>
-      </c>
-      <c r="D66" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -3632,13 +3412,10 @@
         <v>133</v>
       </c>
       <c r="C67" t="s">
-        <v>609</v>
-      </c>
-      <c r="D67" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -3646,13 +3423,10 @@
         <v>135</v>
       </c>
       <c r="C68" t="s">
-        <v>609</v>
-      </c>
-      <c r="D68" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -3660,13 +3434,10 @@
         <v>137</v>
       </c>
       <c r="C69" t="s">
-        <v>609</v>
-      </c>
-      <c r="D69" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -3674,13 +3445,10 @@
         <v>139</v>
       </c>
       <c r="C70" t="s">
-        <v>609</v>
-      </c>
-      <c r="D70" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -3688,13 +3456,10 @@
         <v>141</v>
       </c>
       <c r="C71" t="s">
-        <v>609</v>
-      </c>
-      <c r="D71" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -3702,13 +3467,10 @@
         <v>143</v>
       </c>
       <c r="C72" t="s">
-        <v>609</v>
-      </c>
-      <c r="D72" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -3716,13 +3478,10 @@
         <v>145</v>
       </c>
       <c r="C73" t="s">
-        <v>609</v>
-      </c>
-      <c r="D73" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -3730,13 +3489,10 @@
         <v>147</v>
       </c>
       <c r="C74" t="s">
-        <v>609</v>
-      </c>
-      <c r="D74" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -3744,13 +3500,10 @@
         <v>149</v>
       </c>
       <c r="C75" t="s">
-        <v>609</v>
-      </c>
-      <c r="D75" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -3758,13 +3511,10 @@
         <v>151</v>
       </c>
       <c r="C76" t="s">
-        <v>609</v>
-      </c>
-      <c r="D76" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -3772,13 +3522,10 @@
         <v>153</v>
       </c>
       <c r="C77" t="s">
-        <v>610</v>
-      </c>
-      <c r="D77" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -3786,13 +3533,10 @@
         <v>155</v>
       </c>
       <c r="C78" t="s">
-        <v>610</v>
-      </c>
-      <c r="D78" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -3800,13 +3544,10 @@
         <v>157</v>
       </c>
       <c r="C79" t="s">
-        <v>610</v>
-      </c>
-      <c r="D79" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -3814,13 +3555,10 @@
         <v>159</v>
       </c>
       <c r="C80" t="s">
-        <v>610</v>
-      </c>
-      <c r="D80" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -3828,13 +3566,10 @@
         <v>161</v>
       </c>
       <c r="C81" t="s">
-        <v>610</v>
-      </c>
-      <c r="D81" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3842,13 +3577,10 @@
         <v>163</v>
       </c>
       <c r="C82" t="s">
-        <v>610</v>
-      </c>
-      <c r="D82" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -3856,13 +3588,10 @@
         <v>165</v>
       </c>
       <c r="C83" t="s">
-        <v>610</v>
-      </c>
-      <c r="D83" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -3870,13 +3599,10 @@
         <v>167</v>
       </c>
       <c r="C84" t="s">
-        <v>610</v>
-      </c>
-      <c r="D84" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -3884,13 +3610,10 @@
         <v>169</v>
       </c>
       <c r="C85" t="s">
-        <v>610</v>
-      </c>
-      <c r="D85" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -3898,13 +3621,10 @@
         <v>171</v>
       </c>
       <c r="C86" t="s">
-        <v>610</v>
-      </c>
-      <c r="D86" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -3912,13 +3632,10 @@
         <v>173</v>
       </c>
       <c r="C87" t="s">
-        <v>610</v>
-      </c>
-      <c r="D87" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -3926,13 +3643,10 @@
         <v>175</v>
       </c>
       <c r="C88" t="s">
-        <v>610</v>
-      </c>
-      <c r="D88" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4</v>
       </c>
@@ -3940,13 +3654,10 @@
         <v>177</v>
       </c>
       <c r="C89" t="s">
-        <v>610</v>
-      </c>
-      <c r="D89" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
@@ -3954,13 +3665,10 @@
         <v>179</v>
       </c>
       <c r="C90" t="s">
-        <v>610</v>
-      </c>
-      <c r="D90" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -3968,13 +3676,10 @@
         <v>181</v>
       </c>
       <c r="C91" t="s">
-        <v>610</v>
-      </c>
-      <c r="D91" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -3982,13 +3687,10 @@
         <v>183</v>
       </c>
       <c r="C92" t="s">
-        <v>610</v>
-      </c>
-      <c r="D92" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -3996,13 +3698,10 @@
         <v>185</v>
       </c>
       <c r="C93" t="s">
-        <v>610</v>
-      </c>
-      <c r="D93" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -4010,13 +3709,10 @@
         <v>187</v>
       </c>
       <c r="C94" t="s">
-        <v>610</v>
-      </c>
-      <c r="D94" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -4024,13 +3720,10 @@
         <v>189</v>
       </c>
       <c r="C95" t="s">
-        <v>610</v>
-      </c>
-      <c r="D95" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -4038,13 +3731,10 @@
         <v>191</v>
       </c>
       <c r="C96" t="s">
-        <v>610</v>
-      </c>
-      <c r="D96" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -4052,13 +3742,10 @@
         <v>193</v>
       </c>
       <c r="C97" t="s">
-        <v>610</v>
-      </c>
-      <c r="D97" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -4066,13 +3753,10 @@
         <v>195</v>
       </c>
       <c r="C98" t="s">
-        <v>610</v>
-      </c>
-      <c r="D98" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -4080,13 +3764,10 @@
         <v>197</v>
       </c>
       <c r="C99" t="s">
-        <v>610</v>
-      </c>
-      <c r="D99" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -4094,13 +3775,10 @@
         <v>199</v>
       </c>
       <c r="C100" t="s">
-        <v>610</v>
-      </c>
-      <c r="D100" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -4108,13 +3786,10 @@
         <v>201</v>
       </c>
       <c r="C101" t="s">
-        <v>610</v>
-      </c>
-      <c r="D101" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -4122,13 +3797,10 @@
         <v>203</v>
       </c>
       <c r="C102" t="s">
-        <v>610</v>
-      </c>
-      <c r="D102" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -4136,13 +3808,10 @@
         <v>205</v>
       </c>
       <c r="C103" t="s">
-        <v>610</v>
-      </c>
-      <c r="D103" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>4</v>
       </c>
@@ -4150,13 +3819,10 @@
         <v>207</v>
       </c>
       <c r="C104" t="s">
-        <v>610</v>
-      </c>
-      <c r="D104" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4</v>
       </c>
@@ -4164,13 +3830,10 @@
         <v>209</v>
       </c>
       <c r="C105" t="s">
-        <v>610</v>
-      </c>
-      <c r="D105" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>4</v>
       </c>
@@ -4178,13 +3841,10 @@
         <v>211</v>
       </c>
       <c r="C106" t="s">
-        <v>610</v>
-      </c>
-      <c r="D106" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4</v>
       </c>
@@ -4192,13 +3852,10 @@
         <v>213</v>
       </c>
       <c r="C107" t="s">
-        <v>610</v>
-      </c>
-      <c r="D107" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4</v>
       </c>
@@ -4206,13 +3863,10 @@
         <v>215</v>
       </c>
       <c r="C108" t="s">
-        <v>610</v>
-      </c>
-      <c r="D108" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>4</v>
       </c>
@@ -4220,13 +3874,10 @@
         <v>217</v>
       </c>
       <c r="C109" t="s">
-        <v>610</v>
-      </c>
-      <c r="D109" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>4</v>
       </c>
@@ -4234,13 +3885,10 @@
         <v>219</v>
       </c>
       <c r="C110" t="s">
-        <v>610</v>
-      </c>
-      <c r="D110" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>4</v>
       </c>
@@ -4248,13 +3896,10 @@
         <v>221</v>
       </c>
       <c r="C111" t="s">
-        <v>610</v>
-      </c>
-      <c r="D111" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>4</v>
       </c>
@@ -4262,13 +3907,10 @@
         <v>223</v>
       </c>
       <c r="C112" t="s">
-        <v>610</v>
-      </c>
-      <c r="D112" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>4</v>
       </c>
@@ -4276,13 +3918,10 @@
         <v>225</v>
       </c>
       <c r="C113" t="s">
-        <v>610</v>
-      </c>
-      <c r="D113" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
@@ -4290,13 +3929,10 @@
         <v>227</v>
       </c>
       <c r="C114" t="s">
-        <v>610</v>
-      </c>
-      <c r="D114" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
@@ -4304,13 +3940,10 @@
         <v>229</v>
       </c>
       <c r="C115" t="s">
-        <v>610</v>
-      </c>
-      <c r="D115" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
@@ -4318,13 +3951,10 @@
         <v>231</v>
       </c>
       <c r="C116" t="s">
-        <v>610</v>
-      </c>
-      <c r="D116" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
@@ -4332,13 +3962,10 @@
         <v>233</v>
       </c>
       <c r="C117" t="s">
-        <v>610</v>
-      </c>
-      <c r="D117" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
@@ -4346,13 +3973,10 @@
         <v>235</v>
       </c>
       <c r="C118" t="s">
-        <v>610</v>
-      </c>
-      <c r="D118" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
@@ -4360,13 +3984,10 @@
         <v>237</v>
       </c>
       <c r="C119" t="s">
-        <v>610</v>
-      </c>
-      <c r="D119" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
@@ -4374,13 +3995,10 @@
         <v>239</v>
       </c>
       <c r="C120" t="s">
-        <v>610</v>
-      </c>
-      <c r="D120" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
@@ -4388,13 +4006,10 @@
         <v>241</v>
       </c>
       <c r="C121" t="s">
-        <v>610</v>
-      </c>
-      <c r="D121" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5</v>
       </c>
@@ -4402,13 +4017,10 @@
         <v>243</v>
       </c>
       <c r="C122" t="s">
-        <v>610</v>
-      </c>
-      <c r="D122" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
@@ -4416,13 +4028,10 @@
         <v>245</v>
       </c>
       <c r="C123" t="s">
-        <v>610</v>
-      </c>
-      <c r="D123" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -4430,13 +4039,10 @@
         <v>247</v>
       </c>
       <c r="C124" t="s">
-        <v>610</v>
-      </c>
-      <c r="D124" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -4444,13 +4050,10 @@
         <v>249</v>
       </c>
       <c r="C125" t="s">
-        <v>610</v>
-      </c>
-      <c r="D125" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>5</v>
       </c>
@@ -4458,13 +4061,10 @@
         <v>251</v>
       </c>
       <c r="C126" t="s">
-        <v>610</v>
-      </c>
-      <c r="D126" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5</v>
       </c>
@@ -4472,13 +4072,10 @@
         <v>253</v>
       </c>
       <c r="C127" t="s">
-        <v>610</v>
-      </c>
-      <c r="D127" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -4486,13 +4083,10 @@
         <v>255</v>
       </c>
       <c r="C128" t="s">
-        <v>610</v>
-      </c>
-      <c r="D128" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5</v>
       </c>
@@ -4500,13 +4094,10 @@
         <v>257</v>
       </c>
       <c r="C129" t="s">
-        <v>610</v>
-      </c>
-      <c r="D129" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5</v>
       </c>
@@ -4514,13 +4105,10 @@
         <v>259</v>
       </c>
       <c r="C130" t="s">
-        <v>610</v>
-      </c>
-      <c r="D130" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5</v>
       </c>
@@ -4528,13 +4116,10 @@
         <v>261</v>
       </c>
       <c r="C131" t="s">
-        <v>610</v>
-      </c>
-      <c r="D131" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5</v>
       </c>
@@ -4542,13 +4127,10 @@
         <v>263</v>
       </c>
       <c r="C132" t="s">
-        <v>610</v>
-      </c>
-      <c r="D132" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>5</v>
       </c>
@@ -4556,13 +4138,10 @@
         <v>265</v>
       </c>
       <c r="C133" t="s">
-        <v>610</v>
-      </c>
-      <c r="D133" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>5</v>
       </c>
@@ -4570,13 +4149,10 @@
         <v>267</v>
       </c>
       <c r="C134" t="s">
-        <v>610</v>
-      </c>
-      <c r="D134" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>5</v>
       </c>
@@ -4584,13 +4160,10 @@
         <v>269</v>
       </c>
       <c r="C135" t="s">
-        <v>610</v>
-      </c>
-      <c r="D135" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>5</v>
       </c>
@@ -4598,13 +4171,10 @@
         <v>271</v>
       </c>
       <c r="C136" t="s">
-        <v>610</v>
-      </c>
-      <c r="D136" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>5</v>
       </c>
@@ -4612,13 +4182,10 @@
         <v>273</v>
       </c>
       <c r="C137" t="s">
-        <v>610</v>
-      </c>
-      <c r="D137" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>5</v>
       </c>
@@ -4626,13 +4193,10 @@
         <v>275</v>
       </c>
       <c r="C138" t="s">
-        <v>610</v>
-      </c>
-      <c r="D138" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>5</v>
       </c>
@@ -4640,13 +4204,10 @@
         <v>277</v>
       </c>
       <c r="C139" t="s">
-        <v>610</v>
-      </c>
-      <c r="D139" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>5</v>
       </c>
@@ -4654,13 +4215,10 @@
         <v>279</v>
       </c>
       <c r="C140" t="s">
-        <v>610</v>
-      </c>
-      <c r="D140" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>5</v>
       </c>
@@ -4668,13 +4226,10 @@
         <v>281</v>
       </c>
       <c r="C141" t="s">
-        <v>610</v>
-      </c>
-      <c r="D141" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>5</v>
       </c>
@@ -4682,13 +4237,10 @@
         <v>283</v>
       </c>
       <c r="C142" t="s">
-        <v>610</v>
-      </c>
-      <c r="D142" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>5</v>
       </c>
@@ -4696,13 +4248,10 @@
         <v>285</v>
       </c>
       <c r="C143" t="s">
-        <v>610</v>
-      </c>
-      <c r="D143" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>5</v>
       </c>
@@ -4710,13 +4259,10 @@
         <v>287</v>
       </c>
       <c r="C144" t="s">
-        <v>610</v>
-      </c>
-      <c r="D144" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>5</v>
       </c>
@@ -4724,13 +4270,10 @@
         <v>289</v>
       </c>
       <c r="C145" t="s">
-        <v>610</v>
-      </c>
-      <c r="D145" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>5</v>
       </c>
@@ -4738,13 +4281,10 @@
         <v>291</v>
       </c>
       <c r="C146" t="s">
-        <v>610</v>
-      </c>
-      <c r="D146" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>5</v>
       </c>
@@ -4752,13 +4292,10 @@
         <v>293</v>
       </c>
       <c r="C147" t="s">
-        <v>610</v>
-      </c>
-      <c r="D147" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>5</v>
       </c>
@@ -4766,13 +4303,10 @@
         <v>295</v>
       </c>
       <c r="C148" t="s">
-        <v>610</v>
-      </c>
-      <c r="D148" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>5</v>
       </c>
@@ -4780,13 +4314,10 @@
         <v>297</v>
       </c>
       <c r="C149" t="s">
-        <v>610</v>
-      </c>
-      <c r="D149" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
@@ -4794,13 +4325,10 @@
         <v>299</v>
       </c>
       <c r="C150" t="s">
-        <v>610</v>
-      </c>
-      <c r="D150" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5</v>
       </c>
@@ -4808,13 +4336,10 @@
         <v>301</v>
       </c>
       <c r="C151" t="s">
-        <v>610</v>
-      </c>
-      <c r="D151" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>5</v>
       </c>
@@ -4822,13 +4347,10 @@
         <v>303</v>
       </c>
       <c r="C152" t="s">
-        <v>610</v>
-      </c>
-      <c r="D152" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>5</v>
       </c>
@@ -4836,13 +4358,10 @@
         <v>305</v>
       </c>
       <c r="C153" t="s">
-        <v>610</v>
-      </c>
-      <c r="D153" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>6</v>
       </c>
@@ -4850,13 +4369,10 @@
         <v>307</v>
       </c>
       <c r="C154" t="s">
-        <v>610</v>
-      </c>
-      <c r="D154" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>6</v>
       </c>
@@ -4864,13 +4380,10 @@
         <v>309</v>
       </c>
       <c r="C155" t="s">
-        <v>610</v>
-      </c>
-      <c r="D155" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>6</v>
       </c>
@@ -4878,13 +4391,10 @@
         <v>311</v>
       </c>
       <c r="C156" t="s">
-        <v>610</v>
-      </c>
-      <c r="D156" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>6</v>
       </c>
@@ -4892,13 +4402,10 @@
         <v>313</v>
       </c>
       <c r="C157" t="s">
-        <v>610</v>
-      </c>
-      <c r="D157" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>6</v>
       </c>
@@ -4906,13 +4413,10 @@
         <v>315</v>
       </c>
       <c r="C158" t="s">
-        <v>610</v>
-      </c>
-      <c r="D158" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>6</v>
       </c>
@@ -4920,13 +4424,10 @@
         <v>317</v>
       </c>
       <c r="C159" t="s">
-        <v>610</v>
-      </c>
-      <c r="D159" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>6</v>
       </c>
@@ -4934,13 +4435,10 @@
         <v>319</v>
       </c>
       <c r="C160" t="s">
-        <v>610</v>
-      </c>
-      <c r="D160" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>6</v>
       </c>
@@ -4948,13 +4446,10 @@
         <v>321</v>
       </c>
       <c r="C161" t="s">
-        <v>610</v>
-      </c>
-      <c r="D161" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>6</v>
       </c>
@@ -4962,13 +4457,10 @@
         <v>323</v>
       </c>
       <c r="C162" t="s">
-        <v>610</v>
-      </c>
-      <c r="D162" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>6</v>
       </c>
@@ -4976,13 +4468,10 @@
         <v>325</v>
       </c>
       <c r="C163" t="s">
-        <v>610</v>
-      </c>
-      <c r="D163" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>6</v>
       </c>
@@ -4990,13 +4479,10 @@
         <v>327</v>
       </c>
       <c r="C164" t="s">
-        <v>610</v>
-      </c>
-      <c r="D164" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>6</v>
       </c>
@@ -5004,13 +4490,10 @@
         <v>329</v>
       </c>
       <c r="C165" t="s">
-        <v>610</v>
-      </c>
-      <c r="D165" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>6</v>
       </c>
@@ -5018,13 +4501,10 @@
         <v>331</v>
       </c>
       <c r="C166" t="s">
-        <v>610</v>
-      </c>
-      <c r="D166" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>6</v>
       </c>
@@ -5032,13 +4512,10 @@
         <v>333</v>
       </c>
       <c r="C167" t="s">
-        <v>610</v>
-      </c>
-      <c r="D167" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>7</v>
       </c>
@@ -5046,13 +4523,10 @@
         <v>335</v>
       </c>
       <c r="C168" t="s">
-        <v>610</v>
-      </c>
-      <c r="D168" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>7</v>
       </c>
@@ -5060,13 +4534,10 @@
         <v>337</v>
       </c>
       <c r="C169" t="s">
-        <v>610</v>
-      </c>
-      <c r="D169" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7</v>
       </c>
@@ -5074,13 +4545,10 @@
         <v>339</v>
       </c>
       <c r="C170" t="s">
-        <v>610</v>
-      </c>
-      <c r="D170" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>7</v>
       </c>
@@ -5088,13 +4556,10 @@
         <v>341</v>
       </c>
       <c r="C171" t="s">
-        <v>610</v>
-      </c>
-      <c r="D171" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>7</v>
       </c>
@@ -5102,13 +4567,10 @@
         <v>343</v>
       </c>
       <c r="C172" t="s">
-        <v>610</v>
-      </c>
-      <c r="D172" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>7</v>
       </c>
@@ -5116,13 +4578,10 @@
         <v>345</v>
       </c>
       <c r="C173" t="s">
-        <v>610</v>
-      </c>
-      <c r="D173" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>7</v>
       </c>
@@ -5130,13 +4589,10 @@
         <v>347</v>
       </c>
       <c r="C174" t="s">
-        <v>610</v>
-      </c>
-      <c r="D174" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>7</v>
       </c>
@@ -5144,13 +4600,10 @@
         <v>349</v>
       </c>
       <c r="C175" t="s">
-        <v>610</v>
-      </c>
-      <c r="D175" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>7</v>
       </c>
@@ -5158,13 +4611,10 @@
         <v>351</v>
       </c>
       <c r="C176" t="s">
-        <v>610</v>
-      </c>
-      <c r="D176" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>7</v>
       </c>
@@ -5172,13 +4622,10 @@
         <v>353</v>
       </c>
       <c r="C177" t="s">
-        <v>610</v>
-      </c>
-      <c r="D177" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>7</v>
       </c>
@@ -5186,13 +4633,10 @@
         <v>355</v>
       </c>
       <c r="C178" t="s">
-        <v>610</v>
-      </c>
-      <c r="D178" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>7</v>
       </c>
@@ -5200,13 +4644,10 @@
         <v>357</v>
       </c>
       <c r="C179" t="s">
-        <v>610</v>
-      </c>
-      <c r="D179" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>7</v>
       </c>
@@ -5214,13 +4655,10 @@
         <v>359</v>
       </c>
       <c r="C180" t="s">
-        <v>610</v>
-      </c>
-      <c r="D180" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>7</v>
       </c>
@@ -5228,13 +4666,10 @@
         <v>361</v>
       </c>
       <c r="C181" t="s">
-        <v>610</v>
-      </c>
-      <c r="D181" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>7</v>
       </c>
@@ -5242,13 +4677,10 @@
         <v>363</v>
       </c>
       <c r="C182" t="s">
-        <v>610</v>
-      </c>
-      <c r="D182" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>7</v>
       </c>
@@ -5256,13 +4688,10 @@
         <v>365</v>
       </c>
       <c r="C183" t="s">
-        <v>610</v>
-      </c>
-      <c r="D183" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>7</v>
       </c>
@@ -5270,13 +4699,10 @@
         <v>367</v>
       </c>
       <c r="C184" t="s">
-        <v>610</v>
-      </c>
-      <c r="D184" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>7</v>
       </c>
@@ -5284,13 +4710,10 @@
         <v>369</v>
       </c>
       <c r="C185" t="s">
-        <v>610</v>
-      </c>
-      <c r="D185" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>7</v>
       </c>
@@ -5298,13 +4721,10 @@
         <v>371</v>
       </c>
       <c r="C186" t="s">
-        <v>610</v>
-      </c>
-      <c r="D186" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>7</v>
       </c>
@@ -5312,13 +4732,10 @@
         <v>373</v>
       </c>
       <c r="C187" t="s">
-        <v>610</v>
-      </c>
-      <c r="D187" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>7</v>
       </c>
@@ -5326,13 +4743,10 @@
         <v>375</v>
       </c>
       <c r="C188" t="s">
-        <v>610</v>
-      </c>
-      <c r="D188" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>7</v>
       </c>
@@ -5340,13 +4754,10 @@
         <v>377</v>
       </c>
       <c r="C189" t="s">
-        <v>610</v>
-      </c>
-      <c r="D189" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>7</v>
       </c>
@@ -5354,13 +4765,10 @@
         <v>379</v>
       </c>
       <c r="C190" t="s">
-        <v>610</v>
-      </c>
-      <c r="D190" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>7</v>
       </c>
@@ -5368,13 +4776,10 @@
         <v>381</v>
       </c>
       <c r="C191" t="s">
-        <v>610</v>
-      </c>
-      <c r="D191" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>7</v>
       </c>
@@ -5382,13 +4787,10 @@
         <v>383</v>
       </c>
       <c r="C192" t="s">
-        <v>610</v>
-      </c>
-      <c r="D192" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>7</v>
       </c>
@@ -5396,13 +4798,10 @@
         <v>385</v>
       </c>
       <c r="C193" t="s">
-        <v>610</v>
-      </c>
-      <c r="D193" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>7</v>
       </c>
@@ -5410,13 +4809,10 @@
         <v>387</v>
       </c>
       <c r="C194" t="s">
-        <v>610</v>
-      </c>
-      <c r="D194" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>7</v>
       </c>
@@ -5424,13 +4820,10 @@
         <v>389</v>
       </c>
       <c r="C195" t="s">
-        <v>610</v>
-      </c>
-      <c r="D195" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>8</v>
       </c>
@@ -5438,13 +4831,10 @@
         <v>391</v>
       </c>
       <c r="C196" t="s">
-        <v>610</v>
-      </c>
-      <c r="D196" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>8</v>
       </c>
@@ -5452,13 +4842,10 @@
         <v>393</v>
       </c>
       <c r="C197" t="s">
-        <v>610</v>
-      </c>
-      <c r="D197" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>8</v>
       </c>
@@ -5466,13 +4853,10 @@
         <v>395</v>
       </c>
       <c r="C198" t="s">
-        <v>610</v>
-      </c>
-      <c r="D198" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>8</v>
       </c>
@@ -5480,13 +4864,10 @@
         <v>397</v>
       </c>
       <c r="C199" t="s">
-        <v>610</v>
-      </c>
-      <c r="D199" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>8</v>
       </c>
@@ -5494,13 +4875,10 @@
         <v>399</v>
       </c>
       <c r="C200" t="s">
-        <v>610</v>
-      </c>
-      <c r="D200" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>8</v>
       </c>
@@ -5508,13 +4886,10 @@
         <v>401</v>
       </c>
       <c r="C201" t="s">
-        <v>610</v>
-      </c>
-      <c r="D201" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>8</v>
       </c>
@@ -5522,13 +4897,10 @@
         <v>403</v>
       </c>
       <c r="C202" t="s">
-        <v>610</v>
-      </c>
-      <c r="D202" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>8</v>
       </c>
@@ -5536,13 +4908,10 @@
         <v>405</v>
       </c>
       <c r="C203" t="s">
-        <v>610</v>
-      </c>
-      <c r="D203" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>8</v>
       </c>
@@ -5550,13 +4919,10 @@
         <v>407</v>
       </c>
       <c r="C204" t="s">
-        <v>610</v>
-      </c>
-      <c r="D204" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>8</v>
       </c>
@@ -5564,13 +4930,10 @@
         <v>409</v>
       </c>
       <c r="C205" t="s">
-        <v>610</v>
-      </c>
-      <c r="D205" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>8</v>
       </c>
@@ -5578,13 +4941,10 @@
         <v>411</v>
       </c>
       <c r="C206" t="s">
-        <v>610</v>
-      </c>
-      <c r="D206" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>9</v>
       </c>
@@ -5592,13 +4952,10 @@
         <v>413</v>
       </c>
       <c r="C207" t="s">
-        <v>610</v>
-      </c>
-      <c r="D207" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>9</v>
       </c>
@@ -5606,13 +4963,10 @@
         <v>415</v>
       </c>
       <c r="C208" t="s">
-        <v>610</v>
-      </c>
-      <c r="D208" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>9</v>
       </c>
@@ -5620,13 +4974,10 @@
         <v>417</v>
       </c>
       <c r="C209" t="s">
-        <v>610</v>
-      </c>
-      <c r="D209" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>9</v>
       </c>
@@ -5634,13 +4985,10 @@
         <v>419</v>
       </c>
       <c r="C210" t="s">
-        <v>610</v>
-      </c>
-      <c r="D210" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>9</v>
       </c>
@@ -5648,13 +4996,10 @@
         <v>421</v>
       </c>
       <c r="C211" t="s">
-        <v>610</v>
-      </c>
-      <c r="D211" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>9</v>
       </c>
@@ -5662,13 +5007,10 @@
         <v>423</v>
       </c>
       <c r="C212" t="s">
-        <v>610</v>
-      </c>
-      <c r="D212" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>9</v>
       </c>
@@ -5676,13 +5018,10 @@
         <v>425</v>
       </c>
       <c r="C213" t="s">
-        <v>610</v>
-      </c>
-      <c r="D213" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>9</v>
       </c>
@@ -5690,13 +5029,10 @@
         <v>427</v>
       </c>
       <c r="C214" t="s">
-        <v>610</v>
-      </c>
-      <c r="D214" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>9</v>
       </c>
@@ -5704,13 +5040,10 @@
         <v>429</v>
       </c>
       <c r="C215" t="s">
-        <v>610</v>
-      </c>
-      <c r="D215" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>9</v>
       </c>
@@ -5718,13 +5051,10 @@
         <v>431</v>
       </c>
       <c r="C216" t="s">
-        <v>610</v>
-      </c>
-      <c r="D216" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>9</v>
       </c>
@@ -5732,13 +5062,10 @@
         <v>433</v>
       </c>
       <c r="C217" t="s">
-        <v>610</v>
-      </c>
-      <c r="D217" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>9</v>
       </c>
@@ -5746,13 +5073,10 @@
         <v>435</v>
       </c>
       <c r="C218" t="s">
-        <v>610</v>
-      </c>
-      <c r="D218" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>9</v>
       </c>
@@ -5760,13 +5084,10 @@
         <v>437</v>
       </c>
       <c r="C219" t="s">
-        <v>610</v>
-      </c>
-      <c r="D219" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>9</v>
       </c>
@@ -5774,13 +5095,10 @@
         <v>439</v>
       </c>
       <c r="C220" t="s">
-        <v>610</v>
-      </c>
-      <c r="D220" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>9</v>
       </c>
@@ -5788,13 +5106,10 @@
         <v>441</v>
       </c>
       <c r="C221" t="s">
-        <v>610</v>
-      </c>
-      <c r="D221" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>9</v>
       </c>
@@ -5802,13 +5117,10 @@
         <v>443</v>
       </c>
       <c r="C222" t="s">
-        <v>610</v>
-      </c>
-      <c r="D222" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>9</v>
       </c>
@@ -5816,13 +5128,10 @@
         <v>445</v>
       </c>
       <c r="C223" t="s">
-        <v>610</v>
-      </c>
-      <c r="D223" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>9</v>
       </c>
@@ -5830,13 +5139,10 @@
         <v>447</v>
       </c>
       <c r="C224" t="s">
-        <v>610</v>
-      </c>
-      <c r="D224" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>9</v>
       </c>
@@ -5844,13 +5150,10 @@
         <v>449</v>
       </c>
       <c r="C225" t="s">
-        <v>610</v>
-      </c>
-      <c r="D225" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>9</v>
       </c>
@@ -5858,13 +5161,10 @@
         <v>451</v>
       </c>
       <c r="C226" t="s">
-        <v>610</v>
-      </c>
-      <c r="D226" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>9</v>
       </c>
@@ -5872,13 +5172,10 @@
         <v>453</v>
       </c>
       <c r="C227" t="s">
-        <v>610</v>
-      </c>
-      <c r="D227" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>9</v>
       </c>
@@ -5886,13 +5183,10 @@
         <v>455</v>
       </c>
       <c r="C228" t="s">
-        <v>610</v>
-      </c>
-      <c r="D228" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>9</v>
       </c>
@@ -5900,13 +5194,10 @@
         <v>457</v>
       </c>
       <c r="C229" t="s">
-        <v>610</v>
-      </c>
-      <c r="D229" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>9</v>
       </c>
@@ -5914,13 +5205,10 @@
         <v>459</v>
       </c>
       <c r="C230" t="s">
-        <v>610</v>
-      </c>
-      <c r="D230" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>9</v>
       </c>
@@ -5928,13 +5216,10 @@
         <v>461</v>
       </c>
       <c r="C231" t="s">
-        <v>610</v>
-      </c>
-      <c r="D231" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>9</v>
       </c>
@@ -5942,13 +5227,10 @@
         <v>463</v>
       </c>
       <c r="C232" t="s">
-        <v>610</v>
-      </c>
-      <c r="D232" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>9</v>
       </c>
@@ -5956,13 +5238,10 @@
         <v>465</v>
       </c>
       <c r="C233" t="s">
-        <v>610</v>
-      </c>
-      <c r="D233" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>9</v>
       </c>
@@ -5970,13 +5249,10 @@
         <v>467</v>
       </c>
       <c r="C234" t="s">
-        <v>610</v>
-      </c>
-      <c r="D234" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>9</v>
       </c>
@@ -5984,13 +5260,10 @@
         <v>469</v>
       </c>
       <c r="C235" t="s">
-        <v>610</v>
-      </c>
-      <c r="D235" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>9</v>
       </c>
@@ -5998,13 +5271,10 @@
         <v>471</v>
       </c>
       <c r="C236" t="s">
-        <v>610</v>
-      </c>
-      <c r="D236" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>9</v>
       </c>
@@ -6012,13 +5282,10 @@
         <v>473</v>
       </c>
       <c r="C237" t="s">
-        <v>610</v>
-      </c>
-      <c r="D237" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>9</v>
       </c>
@@ -6026,13 +5293,10 @@
         <v>475</v>
       </c>
       <c r="C238" t="s">
-        <v>610</v>
-      </c>
-      <c r="D238" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>9</v>
       </c>
@@ -6040,13 +5304,10 @@
         <v>477</v>
       </c>
       <c r="C239" t="s">
-        <v>610</v>
-      </c>
-      <c r="D239" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>9</v>
       </c>
@@ -6054,13 +5315,10 @@
         <v>479</v>
       </c>
       <c r="C240" t="s">
-        <v>610</v>
-      </c>
-      <c r="D240" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>9</v>
       </c>
@@ -6068,13 +5326,10 @@
         <v>481</v>
       </c>
       <c r="C241" t="s">
-        <v>610</v>
-      </c>
-      <c r="D241" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>9</v>
       </c>
@@ -6082,13 +5337,10 @@
         <v>483</v>
       </c>
       <c r="C242" t="s">
-        <v>610</v>
-      </c>
-      <c r="D242" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>9</v>
       </c>
@@ -6096,13 +5348,10 @@
         <v>485</v>
       </c>
       <c r="C243" t="s">
-        <v>610</v>
-      </c>
-      <c r="D243" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>9</v>
       </c>
@@ -6110,13 +5359,10 @@
         <v>487</v>
       </c>
       <c r="C244" t="s">
-        <v>610</v>
-      </c>
-      <c r="D244" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>9</v>
       </c>
@@ -6124,13 +5370,10 @@
         <v>489</v>
       </c>
       <c r="C245" t="s">
-        <v>610</v>
-      </c>
-      <c r="D245" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>9</v>
       </c>
@@ -6138,13 +5381,10 @@
         <v>491</v>
       </c>
       <c r="C246" t="s">
-        <v>610</v>
-      </c>
-      <c r="D246" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>9</v>
       </c>
@@ -6152,13 +5392,10 @@
         <v>493</v>
       </c>
       <c r="C247" t="s">
-        <v>610</v>
-      </c>
-      <c r="D247" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>9</v>
       </c>
@@ -6166,13 +5403,10 @@
         <v>495</v>
       </c>
       <c r="C248" t="s">
-        <v>610</v>
-      </c>
-      <c r="D248" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>9</v>
       </c>
@@ -6180,13 +5414,10 @@
         <v>497</v>
       </c>
       <c r="C249" t="s">
-        <v>610</v>
-      </c>
-      <c r="D249" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>9</v>
       </c>
@@ -6194,13 +5425,10 @@
         <v>499</v>
       </c>
       <c r="C250" t="s">
-        <v>610</v>
-      </c>
-      <c r="D250" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>9</v>
       </c>
@@ -6208,13 +5436,10 @@
         <v>501</v>
       </c>
       <c r="C251" t="s">
-        <v>610</v>
-      </c>
-      <c r="D251" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>9</v>
       </c>
@@ -6222,13 +5447,10 @@
         <v>503</v>
       </c>
       <c r="C252" t="s">
-        <v>610</v>
-      </c>
-      <c r="D252" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>9</v>
       </c>
@@ -6236,13 +5458,10 @@
         <v>505</v>
       </c>
       <c r="C253" t="s">
-        <v>610</v>
-      </c>
-      <c r="D253" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>9</v>
       </c>
@@ -6250,13 +5469,10 @@
         <v>507</v>
       </c>
       <c r="C254" t="s">
-        <v>610</v>
-      </c>
-      <c r="D254" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>9</v>
       </c>
@@ -6264,13 +5480,10 @@
         <v>509</v>
       </c>
       <c r="C255" t="s">
-        <v>610</v>
-      </c>
-      <c r="D255" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>9</v>
       </c>
@@ -6278,13 +5491,10 @@
         <v>511</v>
       </c>
       <c r="C256" t="s">
-        <v>610</v>
-      </c>
-      <c r="D256" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>9</v>
       </c>
@@ -6292,13 +5502,10 @@
         <v>513</v>
       </c>
       <c r="C257" t="s">
-        <v>610</v>
-      </c>
-      <c r="D257" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>9</v>
       </c>
@@ -6306,13 +5513,10 @@
         <v>515</v>
       </c>
       <c r="C258" t="s">
-        <v>610</v>
-      </c>
-      <c r="D258" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>9</v>
       </c>
@@ -6320,13 +5524,10 @@
         <v>517</v>
       </c>
       <c r="C259" t="s">
-        <v>610</v>
-      </c>
-      <c r="D259" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>10</v>
       </c>
@@ -6334,13 +5535,10 @@
         <v>519</v>
       </c>
       <c r="C260" t="s">
-        <v>610</v>
-      </c>
-      <c r="D260" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>10</v>
       </c>
@@ -6348,13 +5546,10 @@
         <v>521</v>
       </c>
       <c r="C261" t="s">
-        <v>610</v>
-      </c>
-      <c r="D261" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>10</v>
       </c>
@@ -6362,13 +5557,10 @@
         <v>523</v>
       </c>
       <c r="C262" t="s">
-        <v>610</v>
-      </c>
-      <c r="D262" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>10</v>
       </c>
@@ -6376,13 +5568,10 @@
         <v>525</v>
       </c>
       <c r="C263" t="s">
-        <v>610</v>
-      </c>
-      <c r="D263" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>10</v>
       </c>
@@ -6390,13 +5579,10 @@
         <v>527</v>
       </c>
       <c r="C264" t="s">
-        <v>610</v>
-      </c>
-      <c r="D264" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>10</v>
       </c>
@@ -6404,13 +5590,10 @@
         <v>529</v>
       </c>
       <c r="C265" t="s">
-        <v>610</v>
-      </c>
-      <c r="D265" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>11</v>
       </c>
@@ -6418,13 +5601,10 @@
         <v>531</v>
       </c>
       <c r="C266" t="s">
-        <v>610</v>
-      </c>
-      <c r="D266" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>11</v>
       </c>
@@ -6432,13 +5612,10 @@
         <v>533</v>
       </c>
       <c r="C267" t="s">
-        <v>610</v>
-      </c>
-      <c r="D267" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>11</v>
       </c>
@@ -6446,13 +5623,10 @@
         <v>535</v>
       </c>
       <c r="C268" t="s">
-        <v>610</v>
-      </c>
-      <c r="D268" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>11</v>
       </c>
@@ -6460,13 +5634,10 @@
         <v>537</v>
       </c>
       <c r="C269" t="s">
-        <v>610</v>
-      </c>
-      <c r="D269" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>11</v>
       </c>
@@ -6474,13 +5645,10 @@
         <v>539</v>
       </c>
       <c r="C270" t="s">
-        <v>610</v>
-      </c>
-      <c r="D270" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>11</v>
       </c>
@@ -6488,13 +5656,10 @@
         <v>541</v>
       </c>
       <c r="C271" t="s">
-        <v>610</v>
-      </c>
-      <c r="D271" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>12</v>
       </c>
@@ -6502,13 +5667,10 @@
         <v>543</v>
       </c>
       <c r="C272" t="s">
-        <v>610</v>
-      </c>
-      <c r="D272" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>12</v>
       </c>
@@ -6516,13 +5678,10 @@
         <v>545</v>
       </c>
       <c r="C273" t="s">
-        <v>610</v>
-      </c>
-      <c r="D273" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>12</v>
       </c>
@@ -6530,13 +5689,10 @@
         <v>547</v>
       </c>
       <c r="C274" t="s">
-        <v>610</v>
-      </c>
-      <c r="D274" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>12</v>
       </c>
@@ -6544,13 +5700,10 @@
         <v>549</v>
       </c>
       <c r="C275" t="s">
-        <v>610</v>
-      </c>
-      <c r="D275" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>12</v>
       </c>
@@ -6558,13 +5711,10 @@
         <v>551</v>
       </c>
       <c r="C276" t="s">
-        <v>610</v>
-      </c>
-      <c r="D276" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>12</v>
       </c>
@@ -6572,13 +5722,10 @@
         <v>553</v>
       </c>
       <c r="C277" t="s">
-        <v>610</v>
-      </c>
-      <c r="D277" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>12</v>
       </c>
@@ -6586,13 +5733,10 @@
         <v>555</v>
       </c>
       <c r="C278" t="s">
-        <v>610</v>
-      </c>
-      <c r="D278" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>12</v>
       </c>
@@ -6600,13 +5744,10 @@
         <v>557</v>
       </c>
       <c r="C279" t="s">
-        <v>610</v>
-      </c>
-      <c r="D279" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>12</v>
       </c>
@@ -6614,13 +5755,10 @@
         <v>559</v>
       </c>
       <c r="C280" t="s">
-        <v>610</v>
-      </c>
-      <c r="D280" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>12</v>
       </c>
@@ -6628,13 +5766,10 @@
         <v>561</v>
       </c>
       <c r="C281" t="s">
-        <v>610</v>
-      </c>
-      <c r="D281" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>12</v>
       </c>
@@ -6642,13 +5777,10 @@
         <v>563</v>
       </c>
       <c r="C282" t="s">
-        <v>610</v>
-      </c>
-      <c r="D282" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>12</v>
       </c>
@@ -6656,13 +5788,10 @@
         <v>565</v>
       </c>
       <c r="C283" t="s">
-        <v>610</v>
-      </c>
-      <c r="D283" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>12</v>
       </c>
@@ -6670,13 +5799,10 @@
         <v>567</v>
       </c>
       <c r="C284" t="s">
-        <v>610</v>
-      </c>
-      <c r="D284" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>12</v>
       </c>
@@ -6684,13 +5810,10 @@
         <v>569</v>
       </c>
       <c r="C285" t="s">
-        <v>610</v>
-      </c>
-      <c r="D285" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>12</v>
       </c>
@@ -6698,13 +5821,10 @@
         <v>571</v>
       </c>
       <c r="C286" t="s">
-        <v>610</v>
-      </c>
-      <c r="D286" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>12</v>
       </c>
@@ -6712,13 +5832,10 @@
         <v>573</v>
       </c>
       <c r="C287" t="s">
-        <v>610</v>
-      </c>
-      <c r="D287" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>12</v>
       </c>
@@ -6726,13 +5843,10 @@
         <v>575</v>
       </c>
       <c r="C288" t="s">
-        <v>610</v>
-      </c>
-      <c r="D288" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>12</v>
       </c>
@@ -6740,13 +5854,10 @@
         <v>577</v>
       </c>
       <c r="C289" t="s">
-        <v>610</v>
-      </c>
-      <c r="D289" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>12</v>
       </c>
@@ -6754,13 +5865,10 @@
         <v>579</v>
       </c>
       <c r="C290" t="s">
-        <v>610</v>
-      </c>
-      <c r="D290" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>12</v>
       </c>
@@ -6768,13 +5876,10 @@
         <v>581</v>
       </c>
       <c r="C291" t="s">
-        <v>610</v>
-      </c>
-      <c r="D291" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>12</v>
       </c>
@@ -6782,13 +5887,10 @@
         <v>583</v>
       </c>
       <c r="C292" t="s">
-        <v>610</v>
-      </c>
-      <c r="D292" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>12</v>
       </c>
@@ -6796,13 +5898,10 @@
         <v>585</v>
       </c>
       <c r="C293" t="s">
-        <v>610</v>
-      </c>
-      <c r="D293" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>12</v>
       </c>
@@ -6810,13 +5909,10 @@
         <v>587</v>
       </c>
       <c r="C294" t="s">
-        <v>610</v>
-      </c>
-      <c r="D294" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>12</v>
       </c>
@@ -6824,13 +5920,10 @@
         <v>589</v>
       </c>
       <c r="C295" t="s">
-        <v>610</v>
-      </c>
-      <c r="D295" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>12</v>
       </c>
@@ -6838,13 +5931,10 @@
         <v>591</v>
       </c>
       <c r="C296" t="s">
-        <v>610</v>
-      </c>
-      <c r="D296" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>12</v>
       </c>
@@ -6852,13 +5942,10 @@
         <v>593</v>
       </c>
       <c r="C297" t="s">
-        <v>610</v>
-      </c>
-      <c r="D297" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>12</v>
       </c>
@@ -6866,13 +5953,10 @@
         <v>595</v>
       </c>
       <c r="C298" t="s">
-        <v>610</v>
-      </c>
-      <c r="D298" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>12</v>
       </c>
@@ -6880,13 +5964,10 @@
         <v>597</v>
       </c>
       <c r="C299" t="s">
-        <v>610</v>
-      </c>
-      <c r="D299" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>12</v>
       </c>
@@ -6894,13 +5975,10 @@
         <v>599</v>
       </c>
       <c r="C300" t="s">
-        <v>610</v>
-      </c>
-      <c r="D300" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>12</v>
       </c>
@@ -6908,13 +5986,10 @@
         <v>601</v>
       </c>
       <c r="C301" t="s">
-        <v>610</v>
-      </c>
-      <c r="D301" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>12</v>
       </c>
@@ -6922,13 +5997,10 @@
         <v>603</v>
       </c>
       <c r="C302" t="s">
-        <v>610</v>
-      </c>
-      <c r="D302" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>12</v>
       </c>
@@ -6936,13 +6008,10 @@
         <v>605</v>
       </c>
       <c r="C303" t="s">
-        <v>610</v>
-      </c>
-      <c r="D303" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>12</v>
       </c>
@@ -6950,3373 +6019,10 @@
         <v>607</v>
       </c>
       <c r="C304" t="s">
-        <v>610</v>
-      </c>
-      <c r="D304" t="s">
         <v>608</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C304"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" ht="14.95" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1111</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1112</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1113</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1114</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1115</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1116</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1117</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1118</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>1121</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1122</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>1123</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>1124</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1125</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>1126</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>1127</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>1128</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>1131</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>1132</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>1133</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>1134</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>1135</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>1136</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>1141</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>1142</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>1143</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>1144</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>1145</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>1146</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>1147</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>1151</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>1152</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1</v>
-      </c>
-      <c r="B33">
-        <v>1153</v>
-      </c>
-      <c r="C33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>1154</v>
-      </c>
-      <c r="C34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>1155</v>
-      </c>
-      <c r="C35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>1</v>
-      </c>
-      <c r="B36">
-        <v>1161</v>
-      </c>
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>1</v>
-      </c>
-      <c r="B37">
-        <v>1162</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>1163</v>
-      </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>1</v>
-      </c>
-      <c r="B39">
-        <v>1164</v>
-      </c>
-      <c r="C39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>1</v>
-      </c>
-      <c r="B40">
-        <v>1171</v>
-      </c>
-      <c r="C40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>1172</v>
-      </c>
-      <c r="C41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>1</v>
-      </c>
-      <c r="B42">
-        <v>1173</v>
-      </c>
-      <c r="C42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>1</v>
-      </c>
-      <c r="B43">
-        <v>1174</v>
-      </c>
-      <c r="C43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>1175</v>
-      </c>
-      <c r="C44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>1</v>
-      </c>
-      <c r="B45">
-        <v>1176</v>
-      </c>
-      <c r="C45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46">
-        <v>1181</v>
-      </c>
-      <c r="C46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47">
-        <v>1182</v>
-      </c>
-      <c r="C47" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48">
-        <v>1183</v>
-      </c>
-      <c r="C48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>1</v>
-      </c>
-      <c r="B49">
-        <v>1184</v>
-      </c>
-      <c r="C49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50">
-        <v>1185</v>
-      </c>
-      <c r="C50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51">
-        <v>1186</v>
-      </c>
-      <c r="C51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>1</v>
-      </c>
-      <c r="B52">
-        <v>1191</v>
-      </c>
-      <c r="C52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>1</v>
-      </c>
-      <c r="B53">
-        <v>1192</v>
-      </c>
-      <c r="C53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>1</v>
-      </c>
-      <c r="B54">
-        <v>1193</v>
-      </c>
-      <c r="C54" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55">
-        <v>1194</v>
-      </c>
-      <c r="C55" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>1</v>
-      </c>
-      <c r="B56">
-        <v>1199</v>
-      </c>
-      <c r="C56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>1</v>
-      </c>
-      <c r="B57">
-        <v>1211</v>
-      </c>
-      <c r="C57" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>1</v>
-      </c>
-      <c r="B58">
-        <v>1212</v>
-      </c>
-      <c r="C58" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59">
-        <v>1213</v>
-      </c>
-      <c r="C59" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>1</v>
-      </c>
-      <c r="B60">
-        <v>1221</v>
-      </c>
-      <c r="C60" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>1</v>
-      </c>
-      <c r="B61">
-        <v>1222</v>
-      </c>
-      <c r="C61" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>1</v>
-      </c>
-      <c r="B62">
-        <v>1223</v>
-      </c>
-      <c r="C62" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>2</v>
-      </c>
-      <c r="B63">
-        <v>2111</v>
-      </c>
-      <c r="C63" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>2</v>
-      </c>
-      <c r="B64">
-        <v>2112</v>
-      </c>
-      <c r="C64" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>2</v>
-      </c>
-      <c r="B65">
-        <v>2121</v>
-      </c>
-      <c r="C65" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>2</v>
-      </c>
-      <c r="B66">
-        <v>2122</v>
-      </c>
-      <c r="C66" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>2</v>
-      </c>
-      <c r="B67">
-        <v>2123</v>
-      </c>
-      <c r="C67" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>2</v>
-      </c>
-      <c r="B68">
-        <v>2124</v>
-      </c>
-      <c r="C68" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>2</v>
-      </c>
-      <c r="B69">
-        <v>2131</v>
-      </c>
-      <c r="C69" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>2</v>
-      </c>
-      <c r="B70">
-        <v>2132</v>
-      </c>
-      <c r="C70" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>2</v>
-      </c>
-      <c r="B71">
-        <v>2133</v>
-      </c>
-      <c r="C71" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>2</v>
-      </c>
-      <c r="B72">
-        <v>2134</v>
-      </c>
-      <c r="C72" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>2</v>
-      </c>
-      <c r="B73">
-        <v>2201</v>
-      </c>
-      <c r="C73" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>2</v>
-      </c>
-      <c r="B74">
-        <v>2202</v>
-      </c>
-      <c r="C74" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>2</v>
-      </c>
-      <c r="B75">
-        <v>2203</v>
-      </c>
-      <c r="C75" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>2</v>
-      </c>
-      <c r="B76">
-        <v>2300</v>
-      </c>
-      <c r="C76" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>3</v>
-      </c>
-      <c r="B77">
-        <v>3110</v>
-      </c>
-      <c r="C77" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>3</v>
-      </c>
-      <c r="B78">
-        <v>3121</v>
-      </c>
-      <c r="C78" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>3</v>
-      </c>
-      <c r="B79">
-        <v>3122</v>
-      </c>
-      <c r="C79" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>3</v>
-      </c>
-      <c r="B80">
-        <v>3123</v>
-      </c>
-      <c r="C80" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>3</v>
-      </c>
-      <c r="B81">
-        <v>3131</v>
-      </c>
-      <c r="C81" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>3</v>
-      </c>
-      <c r="B82">
-        <v>3132</v>
-      </c>
-      <c r="C82" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>3</v>
-      </c>
-      <c r="B83">
-        <v>3141</v>
-      </c>
-      <c r="C83" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>3</v>
-      </c>
-      <c r="B84">
-        <v>3142</v>
-      </c>
-      <c r="C84" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>3</v>
-      </c>
-      <c r="B85">
-        <v>3211</v>
-      </c>
-      <c r="C85" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>3</v>
-      </c>
-      <c r="B86">
-        <v>3212</v>
-      </c>
-      <c r="C86" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>3</v>
-      </c>
-      <c r="B87">
-        <v>3213</v>
-      </c>
-      <c r="C87" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>3</v>
-      </c>
-      <c r="B88">
-        <v>3220</v>
-      </c>
-      <c r="C88" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>4</v>
-      </c>
-      <c r="B89">
-        <v>4110</v>
-      </c>
-      <c r="C89" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>4</v>
-      </c>
-      <c r="B90">
-        <v>4121</v>
-      </c>
-      <c r="C90" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>4</v>
-      </c>
-      <c r="B91">
-        <v>4122</v>
-      </c>
-      <c r="C91" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>4</v>
-      </c>
-      <c r="B92">
-        <v>4210</v>
-      </c>
-      <c r="C92" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>4</v>
-      </c>
-      <c r="B93">
-        <v>4220</v>
-      </c>
-      <c r="C93" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>4</v>
-      </c>
-      <c r="B94">
-        <v>4310</v>
-      </c>
-      <c r="C94" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>4</v>
-      </c>
-      <c r="B95">
-        <v>4321</v>
-      </c>
-      <c r="C95" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>4</v>
-      </c>
-      <c r="B96">
-        <v>4322</v>
-      </c>
-      <c r="C96" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>4</v>
-      </c>
-      <c r="B97">
-        <v>4323</v>
-      </c>
-      <c r="C97" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>4</v>
-      </c>
-      <c r="B98">
-        <v>4324</v>
-      </c>
-      <c r="C98" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>4</v>
-      </c>
-      <c r="B99">
-        <v>4325</v>
-      </c>
-      <c r="C99" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>4</v>
-      </c>
-      <c r="B100">
-        <v>4329</v>
-      </c>
-      <c r="C100" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>4</v>
-      </c>
-      <c r="B101">
-        <v>4410</v>
-      </c>
-      <c r="C101" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>4</v>
-      </c>
-      <c r="B102">
-        <v>4420</v>
-      </c>
-      <c r="C102" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>4</v>
-      </c>
-      <c r="B103">
-        <v>4430</v>
-      </c>
-      <c r="C103" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>4</v>
-      </c>
-      <c r="B104">
-        <v>4441</v>
-      </c>
-      <c r="C104" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>4</v>
-      </c>
-      <c r="B105">
-        <v>4442</v>
-      </c>
-      <c r="C105" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>4</v>
-      </c>
-      <c r="B106">
-        <v>4449</v>
-      </c>
-      <c r="C106" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>4</v>
-      </c>
-      <c r="B107">
-        <v>4510</v>
-      </c>
-      <c r="C107" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>4</v>
-      </c>
-      <c r="B108">
-        <v>4521</v>
-      </c>
-      <c r="C108" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>4</v>
-      </c>
-      <c r="B109">
-        <v>4522</v>
-      </c>
-      <c r="C109" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>4</v>
-      </c>
-      <c r="B110">
-        <v>4530</v>
-      </c>
-      <c r="C110" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>4</v>
-      </c>
-      <c r="B111">
-        <v>4541</v>
-      </c>
-      <c r="C111" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>4</v>
-      </c>
-      <c r="B112">
-        <v>4549</v>
-      </c>
-      <c r="C112" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>4</v>
-      </c>
-      <c r="B113">
-        <v>4550</v>
-      </c>
-      <c r="C113" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>5</v>
-      </c>
-      <c r="B114">
-        <v>5111</v>
-      </c>
-      <c r="C114" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>5</v>
-      </c>
-      <c r="B115">
-        <v>5112</v>
-      </c>
-      <c r="C115" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>5</v>
-      </c>
-      <c r="B116">
-        <v>5113</v>
-      </c>
-      <c r="C116" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>5</v>
-      </c>
-      <c r="B117">
-        <v>5119</v>
-      </c>
-      <c r="C117" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>5</v>
-      </c>
-      <c r="B118">
-        <v>5121</v>
-      </c>
-      <c r="C118" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>5</v>
-      </c>
-      <c r="B119">
-        <v>5122</v>
-      </c>
-      <c r="C119" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>5</v>
-      </c>
-      <c r="B120">
-        <v>5123</v>
-      </c>
-      <c r="C120" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>5</v>
-      </c>
-      <c r="B121">
-        <v>5130</v>
-      </c>
-      <c r="C121" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>5</v>
-      </c>
-      <c r="B122">
-        <v>5201</v>
-      </c>
-      <c r="C122" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>5</v>
-      </c>
-      <c r="B123">
-        <v>5202</v>
-      </c>
-      <c r="C123" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>5</v>
-      </c>
-      <c r="B124">
-        <v>5203</v>
-      </c>
-      <c r="C124" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>5</v>
-      </c>
-      <c r="B125">
-        <v>5204</v>
-      </c>
-      <c r="C125" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>5</v>
-      </c>
-      <c r="B126">
-        <v>5209</v>
-      </c>
-      <c r="C126" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>5</v>
-      </c>
-      <c r="B127">
-        <v>5311</v>
-      </c>
-      <c r="C127" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>5</v>
-      </c>
-      <c r="B128">
-        <v>5312</v>
-      </c>
-      <c r="C128" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>5</v>
-      </c>
-      <c r="B129">
-        <v>5313</v>
-      </c>
-      <c r="C129" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>5</v>
-      </c>
-      <c r="B130">
-        <v>5314</v>
-      </c>
-      <c r="C130" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>5</v>
-      </c>
-      <c r="B131">
-        <v>5315</v>
-      </c>
-      <c r="C131" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>5</v>
-      </c>
-      <c r="B132">
-        <v>5319</v>
-      </c>
-      <c r="C132" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>5</v>
-      </c>
-      <c r="B133">
-        <v>5321</v>
-      </c>
-      <c r="C133" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>5</v>
-      </c>
-      <c r="B134">
-        <v>5322</v>
-      </c>
-      <c r="C134" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>5</v>
-      </c>
-      <c r="B135">
-        <v>5323</v>
-      </c>
-      <c r="C135" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>5</v>
-      </c>
-      <c r="B136">
-        <v>5324</v>
-      </c>
-      <c r="C136" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>5</v>
-      </c>
-      <c r="B137">
-        <v>5329</v>
-      </c>
-      <c r="C137" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>5</v>
-      </c>
-      <c r="B138">
-        <v>5330</v>
-      </c>
-      <c r="C138" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>5</v>
-      </c>
-      <c r="B139">
-        <v>5401</v>
-      </c>
-      <c r="C139" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>5</v>
-      </c>
-      <c r="B140">
-        <v>5402</v>
-      </c>
-      <c r="C140" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>5</v>
-      </c>
-      <c r="B141">
-        <v>5403</v>
-      </c>
-      <c r="C141" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>5</v>
-      </c>
-      <c r="B142">
-        <v>5404</v>
-      </c>
-      <c r="C142" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>5</v>
-      </c>
-      <c r="B143">
-        <v>5511</v>
-      </c>
-      <c r="C143" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>5</v>
-      </c>
-      <c r="B144">
-        <v>5512</v>
-      </c>
-      <c r="C144" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>5</v>
-      </c>
-      <c r="B145">
-        <v>5521</v>
-      </c>
-      <c r="C145" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>5</v>
-      </c>
-      <c r="B146">
-        <v>5522</v>
-      </c>
-      <c r="C146" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>5</v>
-      </c>
-      <c r="B147">
-        <v>5523</v>
-      </c>
-      <c r="C147" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>5</v>
-      </c>
-      <c r="B148">
-        <v>5611</v>
-      </c>
-      <c r="C148" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>5</v>
-      </c>
-      <c r="B149">
-        <v>5612</v>
-      </c>
-      <c r="C149" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>5</v>
-      </c>
-      <c r="B150">
-        <v>5621</v>
-      </c>
-      <c r="C150" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>5</v>
-      </c>
-      <c r="B151">
-        <v>5622</v>
-      </c>
-      <c r="C151" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>5</v>
-      </c>
-      <c r="B152">
-        <v>5623</v>
-      </c>
-      <c r="C152" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>5</v>
-      </c>
-      <c r="B153">
-        <v>5629</v>
-      </c>
-      <c r="C153" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>6</v>
-      </c>
-      <c r="B154">
-        <v>6110</v>
-      </c>
-      <c r="C154" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>6</v>
-      </c>
-      <c r="B155">
-        <v>6121</v>
-      </c>
-      <c r="C155" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>6</v>
-      </c>
-      <c r="B156">
-        <v>6129</v>
-      </c>
-      <c r="C156" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>6</v>
-      </c>
-      <c r="B157">
-        <v>6131</v>
-      </c>
-      <c r="C157" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>6</v>
-      </c>
-      <c r="B158">
-        <v>6132</v>
-      </c>
-      <c r="C158" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>6</v>
-      </c>
-      <c r="B159">
-        <v>6133</v>
-      </c>
-      <c r="C159" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>6</v>
-      </c>
-      <c r="B160">
-        <v>6139</v>
-      </c>
-      <c r="C160" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>6</v>
-      </c>
-      <c r="B161">
-        <v>6211</v>
-      </c>
-      <c r="C161" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>6</v>
-      </c>
-      <c r="B162">
-        <v>6212</v>
-      </c>
-      <c r="C162" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>6</v>
-      </c>
-      <c r="B163">
-        <v>6220</v>
-      </c>
-      <c r="C163" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>6</v>
-      </c>
-      <c r="B164">
-        <v>6231</v>
-      </c>
-      <c r="C164" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>6</v>
-      </c>
-      <c r="B165">
-        <v>6232</v>
-      </c>
-      <c r="C165" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>6</v>
-      </c>
-      <c r="B166">
-        <v>6239</v>
-      </c>
-      <c r="C166" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>6</v>
-      </c>
-      <c r="B167">
-        <v>6300</v>
-      </c>
-      <c r="C167" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>7</v>
-      </c>
-      <c r="B168">
-        <v>7111</v>
-      </c>
-      <c r="C168" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>7</v>
-      </c>
-      <c r="B169">
-        <v>7112</v>
-      </c>
-      <c r="C169" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>7</v>
-      </c>
-      <c r="B170">
-        <v>7120</v>
-      </c>
-      <c r="C170" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>7</v>
-      </c>
-      <c r="B171">
-        <v>7130</v>
-      </c>
-      <c r="C171" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>7</v>
-      </c>
-      <c r="B172">
-        <v>7140</v>
-      </c>
-      <c r="C172" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>7</v>
-      </c>
-      <c r="B173">
-        <v>7211</v>
-      </c>
-      <c r="C173" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>7</v>
-      </c>
-      <c r="B174">
-        <v>7212</v>
-      </c>
-      <c r="C174" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>7</v>
-      </c>
-      <c r="B175">
-        <v>7213</v>
-      </c>
-      <c r="C175" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>7</v>
-      </c>
-      <c r="B176">
-        <v>7221</v>
-      </c>
-      <c r="C176" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>7</v>
-      </c>
-      <c r="B177">
-        <v>7222</v>
-      </c>
-      <c r="C177" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>7</v>
-      </c>
-      <c r="B178">
-        <v>7223</v>
-      </c>
-      <c r="C178" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>7</v>
-      </c>
-      <c r="B179">
-        <v>7224</v>
-      </c>
-      <c r="C179" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>7</v>
-      </c>
-      <c r="B180">
-        <v>7230</v>
-      </c>
-      <c r="C180" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>7</v>
-      </c>
-      <c r="B181">
-        <v>7241</v>
-      </c>
-      <c r="C181" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>7</v>
-      </c>
-      <c r="B182">
-        <v>7242</v>
-      </c>
-      <c r="C182" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>7</v>
-      </c>
-      <c r="B183">
-        <v>7243</v>
-      </c>
-      <c r="C183" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>7</v>
-      </c>
-      <c r="B184">
-        <v>7311</v>
-      </c>
-      <c r="C184" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>7</v>
-      </c>
-      <c r="B185">
-        <v>7312</v>
-      </c>
-      <c r="C185" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>7</v>
-      </c>
-      <c r="B186">
-        <v>7321</v>
-      </c>
-      <c r="C186" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>7</v>
-      </c>
-      <c r="B187">
-        <v>7322</v>
-      </c>
-      <c r="C187" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>7</v>
-      </c>
-      <c r="B188">
-        <v>7331</v>
-      </c>
-      <c r="C188" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>7</v>
-      </c>
-      <c r="B189">
-        <v>7332</v>
-      </c>
-      <c r="C189" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>7</v>
-      </c>
-      <c r="B190">
-        <v>7341</v>
-      </c>
-      <c r="C190" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>7</v>
-      </c>
-      <c r="B191">
-        <v>7342</v>
-      </c>
-      <c r="C191" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>7</v>
-      </c>
-      <c r="B192">
-        <v>7350</v>
-      </c>
-      <c r="C192" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>7</v>
-      </c>
-      <c r="B193">
-        <v>7361</v>
-      </c>
-      <c r="C193" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>7</v>
-      </c>
-      <c r="B194">
-        <v>7362</v>
-      </c>
-      <c r="C194" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>7</v>
-      </c>
-      <c r="B195">
-        <v>7369</v>
-      </c>
-      <c r="C195" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>8</v>
-      </c>
-      <c r="B196">
-        <v>8101</v>
-      </c>
-      <c r="C196" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>8</v>
-      </c>
-      <c r="B197">
-        <v>8109</v>
-      </c>
-      <c r="C197" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>8</v>
-      </c>
-      <c r="B198">
-        <v>8201</v>
-      </c>
-      <c r="C198" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>8</v>
-      </c>
-      <c r="B199">
-        <v>8202</v>
-      </c>
-      <c r="C199" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>8</v>
-      </c>
-      <c r="B200">
-        <v>8203</v>
-      </c>
-      <c r="C200" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>8</v>
-      </c>
-      <c r="B201">
-        <v>8204</v>
-      </c>
-      <c r="C201" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>8</v>
-      </c>
-      <c r="B202">
-        <v>8301</v>
-      </c>
-      <c r="C202" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>8</v>
-      </c>
-      <c r="B203">
-        <v>8302</v>
-      </c>
-      <c r="C203" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>8</v>
-      </c>
-      <c r="B204">
-        <v>8303</v>
-      </c>
-      <c r="C204" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>8</v>
-      </c>
-      <c r="B205">
-        <v>8304</v>
-      </c>
-      <c r="C205" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>8</v>
-      </c>
-      <c r="B206">
-        <v>8305</v>
-      </c>
-      <c r="C206" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>9</v>
-      </c>
-      <c r="B207">
-        <v>9111</v>
-      </c>
-      <c r="C207" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>9</v>
-      </c>
-      <c r="B208">
-        <v>9112</v>
-      </c>
-      <c r="C208" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>9</v>
-      </c>
-      <c r="B209">
-        <v>9113</v>
-      </c>
-      <c r="C209" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>9</v>
-      </c>
-      <c r="B210">
-        <v>9119</v>
-      </c>
-      <c r="C210" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>9</v>
-      </c>
-      <c r="B211">
-        <v>9121</v>
-      </c>
-      <c r="C211" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>9</v>
-      </c>
-      <c r="B212">
-        <v>9122</v>
-      </c>
-      <c r="C212" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>9</v>
-      </c>
-      <c r="B213">
-        <v>9123</v>
-      </c>
-      <c r="C213" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>9</v>
-      </c>
-      <c r="B214">
-        <v>9131</v>
-      </c>
-      <c r="C214" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>9</v>
-      </c>
-      <c r="B215">
-        <v>9132</v>
-      </c>
-      <c r="C215" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>9</v>
-      </c>
-      <c r="B216">
-        <v>9133</v>
-      </c>
-      <c r="C216" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>9</v>
-      </c>
-      <c r="B217">
-        <v>9134</v>
-      </c>
-      <c r="C217" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>9</v>
-      </c>
-      <c r="B218">
-        <v>9141</v>
-      </c>
-      <c r="C218" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>9</v>
-      </c>
-      <c r="B219">
-        <v>9142</v>
-      </c>
-      <c r="C219" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>9</v>
-      </c>
-      <c r="B220">
-        <v>9149</v>
-      </c>
-      <c r="C220" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>9</v>
-      </c>
-      <c r="B221">
-        <v>9150</v>
-      </c>
-      <c r="C221" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>9</v>
-      </c>
-      <c r="B222">
-        <v>9211</v>
-      </c>
-      <c r="C222" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>9</v>
-      </c>
-      <c r="B223">
-        <v>9212</v>
-      </c>
-      <c r="C223" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>9</v>
-      </c>
-      <c r="B224">
-        <v>9213</v>
-      </c>
-      <c r="C224" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>9</v>
-      </c>
-      <c r="B225">
-        <v>9214</v>
-      </c>
-      <c r="C225" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>9</v>
-      </c>
-      <c r="B226">
-        <v>9215</v>
-      </c>
-      <c r="C226" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>9</v>
-      </c>
-      <c r="B227">
-        <v>9221</v>
-      </c>
-      <c r="C227" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>9</v>
-      </c>
-      <c r="B228">
-        <v>9222</v>
-      </c>
-      <c r="C228" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>9</v>
-      </c>
-      <c r="B229">
-        <v>9230</v>
-      </c>
-      <c r="C229" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>9</v>
-      </c>
-      <c r="B230">
-        <v>9311</v>
-      </c>
-      <c r="C230" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>9</v>
-      </c>
-      <c r="B231">
-        <v>9312</v>
-      </c>
-      <c r="C231" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>9</v>
-      </c>
-      <c r="B232">
-        <v>9321</v>
-      </c>
-      <c r="C232" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>9</v>
-      </c>
-      <c r="B233">
-        <v>9322</v>
-      </c>
-      <c r="C233" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>9</v>
-      </c>
-      <c r="B234">
-        <v>9323</v>
-      </c>
-      <c r="C234" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>9</v>
-      </c>
-      <c r="B235">
-        <v>9331</v>
-      </c>
-      <c r="C235" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>9</v>
-      </c>
-      <c r="B236">
-        <v>9332</v>
-      </c>
-      <c r="C236" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>9</v>
-      </c>
-      <c r="B237">
-        <v>9341</v>
-      </c>
-      <c r="C237" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>9</v>
-      </c>
-      <c r="B238">
-        <v>9342</v>
-      </c>
-      <c r="C238" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>9</v>
-      </c>
-      <c r="B239">
-        <v>9350</v>
-      </c>
-      <c r="C239" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>9</v>
-      </c>
-      <c r="B240">
-        <v>9411</v>
-      </c>
-      <c r="C240" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>9</v>
-      </c>
-      <c r="B241">
-        <v>9412</v>
-      </c>
-      <c r="C241" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>9</v>
-      </c>
-      <c r="B242">
-        <v>9421</v>
-      </c>
-      <c r="C242" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>9</v>
-      </c>
-      <c r="B243">
-        <v>9422</v>
-      </c>
-      <c r="C243" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>9</v>
-      </c>
-      <c r="B244">
-        <v>9423</v>
-      </c>
-      <c r="C244" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>9</v>
-      </c>
-      <c r="B245">
-        <v>9424</v>
-      </c>
-      <c r="C245" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>9</v>
-      </c>
-      <c r="B246">
-        <v>9425</v>
-      </c>
-      <c r="C246" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>9</v>
-      </c>
-      <c r="B247">
-        <v>9429</v>
-      </c>
-      <c r="C247" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>9</v>
-      </c>
-      <c r="B248">
-        <v>9430</v>
-      </c>
-      <c r="C248" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>9</v>
-      </c>
-      <c r="B249">
-        <v>9511</v>
-      </c>
-      <c r="C249" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>9</v>
-      </c>
-      <c r="B250">
-        <v>9512</v>
-      </c>
-      <c r="C250" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>9</v>
-      </c>
-      <c r="B251">
-        <v>9513</v>
-      </c>
-      <c r="C251" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>9</v>
-      </c>
-      <c r="B252">
-        <v>9514</v>
-      </c>
-      <c r="C252" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>9</v>
-      </c>
-      <c r="B253">
-        <v>9521</v>
-      </c>
-      <c r="C253" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>9</v>
-      </c>
-      <c r="B254">
-        <v>9522</v>
-      </c>
-      <c r="C254" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>9</v>
-      </c>
-      <c r="B255">
-        <v>9530</v>
-      </c>
-      <c r="C255" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>9</v>
-      </c>
-      <c r="B256">
-        <v>9541</v>
-      </c>
-      <c r="C256" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>9</v>
-      </c>
-      <c r="B257">
-        <v>9549</v>
-      </c>
-      <c r="C257" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>9</v>
-      </c>
-      <c r="B258">
-        <v>9601</v>
-      </c>
-      <c r="C258" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>9</v>
-      </c>
-      <c r="B259">
-        <v>9602</v>
-      </c>
-      <c r="C259" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>10</v>
-      </c>
-      <c r="B260">
-        <v>10101</v>
-      </c>
-      <c r="C260" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>10</v>
-      </c>
-      <c r="B261">
-        <v>10102</v>
-      </c>
-      <c r="C261" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>10</v>
-      </c>
-      <c r="B262">
-        <v>10200</v>
-      </c>
-      <c r="C262" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263">
-        <v>10</v>
-      </c>
-      <c r="B263">
-        <v>10300</v>
-      </c>
-      <c r="C263" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264">
-        <v>10</v>
-      </c>
-      <c r="B264">
-        <v>10400</v>
-      </c>
-      <c r="C264" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265">
-        <v>10</v>
-      </c>
-      <c r="B265">
-        <v>10500</v>
-      </c>
-      <c r="C265" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266">
-        <v>11</v>
-      </c>
-      <c r="B266">
-        <v>11111</v>
-      </c>
-      <c r="C266" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267">
-        <v>11</v>
-      </c>
-      <c r="B267">
-        <v>11112</v>
-      </c>
-      <c r="C267" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268">
-        <v>11</v>
-      </c>
-      <c r="B268">
-        <v>11120</v>
-      </c>
-      <c r="C268" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269">
-        <v>11</v>
-      </c>
-      <c r="B269">
-        <v>11201</v>
-      </c>
-      <c r="C269" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270">
-        <v>11</v>
-      </c>
-      <c r="B270">
-        <v>11202</v>
-      </c>
-      <c r="C270" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271">
-        <v>11</v>
-      </c>
-      <c r="B271">
-        <v>11203</v>
-      </c>
-      <c r="C271" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272">
-        <v>12</v>
-      </c>
-      <c r="B272">
-        <v>12111</v>
-      </c>
-      <c r="C272" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273">
-        <v>12</v>
-      </c>
-      <c r="B273">
-        <v>12112</v>
-      </c>
-      <c r="C273" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274">
-        <v>12</v>
-      </c>
-      <c r="B274">
-        <v>12113</v>
-      </c>
-      <c r="C274" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275">
-        <v>12</v>
-      </c>
-      <c r="B275">
-        <v>12121</v>
-      </c>
-      <c r="C275" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276">
-        <v>12</v>
-      </c>
-      <c r="B276">
-        <v>12122</v>
-      </c>
-      <c r="C276" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277">
-        <v>12</v>
-      </c>
-      <c r="B277">
-        <v>12131</v>
-      </c>
-      <c r="C277" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278">
-        <v>12</v>
-      </c>
-      <c r="B278">
-        <v>12132</v>
-      </c>
-      <c r="C278" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279">
-        <v>12</v>
-      </c>
-      <c r="B279">
-        <v>12200</v>
-      </c>
-      <c r="C279" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280">
-        <v>12</v>
-      </c>
-      <c r="B280">
-        <v>12311</v>
-      </c>
-      <c r="C280" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281">
-        <v>12</v>
-      </c>
-      <c r="B281">
-        <v>12312</v>
-      </c>
-      <c r="C281" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282">
-        <v>12</v>
-      </c>
-      <c r="B282">
-        <v>12313</v>
-      </c>
-      <c r="C282" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283">
-        <v>12</v>
-      </c>
-      <c r="B283">
-        <v>12321</v>
-      </c>
-      <c r="C283" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284">
-        <v>12</v>
-      </c>
-      <c r="B284">
-        <v>12322</v>
-      </c>
-      <c r="C284" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285">
-        <v>12</v>
-      </c>
-      <c r="B285">
-        <v>12323</v>
-      </c>
-      <c r="C285" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286">
-        <v>12</v>
-      </c>
-      <c r="B286">
-        <v>12329</v>
-      </c>
-      <c r="C286" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287">
-        <v>12</v>
-      </c>
-      <c r="B287">
-        <v>12401</v>
-      </c>
-      <c r="C287" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288">
-        <v>12</v>
-      </c>
-      <c r="B288">
-        <v>12402</v>
-      </c>
-      <c r="C288" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289">
-        <v>12</v>
-      </c>
-      <c r="B289">
-        <v>12403</v>
-      </c>
-      <c r="C289" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290">
-        <v>12</v>
-      </c>
-      <c r="B290">
-        <v>12404</v>
-      </c>
-      <c r="C290" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291">
-        <v>12</v>
-      </c>
-      <c r="B291">
-        <v>12510</v>
-      </c>
-      <c r="C291" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292">
-        <v>12</v>
-      </c>
-      <c r="B292">
-        <v>12520</v>
-      </c>
-      <c r="C292" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293">
-        <v>12</v>
-      </c>
-      <c r="B293">
-        <v>12531</v>
-      </c>
-      <c r="C293" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294">
-        <v>12</v>
-      </c>
-      <c r="B294">
-        <v>12532</v>
-      </c>
-      <c r="C294" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295">
-        <v>12</v>
-      </c>
-      <c r="B295">
-        <v>12541</v>
-      </c>
-      <c r="C295" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296">
-        <v>12</v>
-      </c>
-      <c r="B296">
-        <v>12542</v>
-      </c>
-      <c r="C296" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297">
-        <v>12</v>
-      </c>
-      <c r="B297">
-        <v>12550</v>
-      </c>
-      <c r="C297" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298">
-        <v>12</v>
-      </c>
-      <c r="B298">
-        <v>12610</v>
-      </c>
-      <c r="C298" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299">
-        <v>12</v>
-      </c>
-      <c r="B299">
-        <v>12621</v>
-      </c>
-      <c r="C299" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300">
-        <v>12</v>
-      </c>
-      <c r="B300">
-        <v>12622</v>
-      </c>
-      <c r="C300" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301">
-        <v>12</v>
-      </c>
-      <c r="B301">
-        <v>12701</v>
-      </c>
-      <c r="C301" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302">
-        <v>12</v>
-      </c>
-      <c r="B302">
-        <v>12702</v>
-      </c>
-      <c r="C302" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303">
-        <v>12</v>
-      </c>
-      <c r="B303">
-        <v>12703</v>
-      </c>
-      <c r="C303" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304">
-        <v>12</v>
-      </c>
-      <c r="B304">
-        <v>12704</v>
-      </c>
-      <c r="C304" t="s">
-        <v>608</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>